--- a/アンケート結果.xlsx
+++ b/アンケート結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uemototakumikai/uemoto/中間審査/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uemototakumikai/uemoto/soturonn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A93F42-D5FD-9048-86F9-68A085056689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532AA9BC-0E61-7D4B-824F-2FAF8369B4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="3680" windowWidth="28300" windowHeight="17440" xr2:uid="{2CB3FE9B-9E84-2F40-BA08-8D9413EF54C1}"/>
+    <workbookView xWindow="16720" yWindow="3520" windowWidth="28300" windowHeight="17440" xr2:uid="{2CB3FE9B-9E84-2F40-BA08-8D9413EF54C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>集中して事前学習に取り組めたか</t>
     <rPh sb="0" eb="2">
@@ -809,6 +809,1023 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5541557305336829E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.88390288713910758"/>
+          <c:h val="0.74912037037037038"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>責任者ではないときも意見を出すことができたか</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B968-9845-848C-32CC0D20CDEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="924759344"/>
+        <c:axId val="924774848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="924759344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924774848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="924774848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924759344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5581650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A915025-644C-B242-BCBA-7E4D4FB05817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07083</cdr:x>
+      <cdr:y>0.86806</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29028</cdr:x>
+      <cdr:y>0.98611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4828517-1563-4D4A-BF46-BA62898AD20C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="323850" y="2381250"/>
+          <a:ext cx="1003300" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>できなかった</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81389</cdr:x>
+      <cdr:y>0.86806</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95694</cdr:x>
+      <cdr:y>0.98611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18B90AE-0524-4949-B153-3E9BEE14982E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3721100" y="2381250"/>
+          <a:ext cx="654050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>できた</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1108,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC68207-1C38-6C4C-8D7D-AB04E9BF9554}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1583,8 +2600,47 @@
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
     </row>
+    <row r="22" spans="1:12" ht="21" thickBot="1"/>
+    <row r="23" spans="1:12" ht="21" thickBot="1">
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19">
+        <v>4</v>
+      </c>
+      <c r="G23" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21" thickBot="1">
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.115</v>
+      </c>
+      <c r="D24">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/アンケート結果.xlsx
+++ b/アンケート結果.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uemototakumikai/uemoto/soturonn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532AA9BC-0E61-7D4B-824F-2FAF8369B4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF299FA-CECC-6241-B17C-2A39C4662B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="3520" windowWidth="28300" windowHeight="17440" xr2:uid="{2CB3FE9B-9E84-2F40-BA08-8D9413EF54C1}"/>
+    <workbookView xWindow="15860" yWindow="5060" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{2CB3FE9B-9E84-2F40-BA08-8D9413EF54C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>集中して事前学習に取り組めたか</t>
     <rPh sb="0" eb="2">
@@ -700,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +793,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,1023 +813,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.5541557305336829E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.88390288713910758"/>
-          <c:h val="0.74912037037037038"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>責任者ではないときも意見を出すことができたか</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$24:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B968-9845-848C-32CC0D20CDEB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="924759344"/>
-        <c:axId val="924774848"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="924759344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="924774848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="924774848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="924759344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5581650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A915025-644C-B242-BCBA-7E4D4FB05817}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.07083</cdr:x>
-      <cdr:y>0.86806</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.29028</cdr:x>
-      <cdr:y>0.98611</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4828517-1563-4D4A-BF46-BA62898AD20C}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="323850" y="2381250"/>
-          <a:ext cx="1003300" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>できなかった</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.81389</cdr:x>
-      <cdr:y>0.86806</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95694</cdr:x>
-      <cdr:y>0.98611</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18B90AE-0524-4949-B153-3E9BEE14982E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3721100" y="2381250"/>
-          <a:ext cx="654050" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>できた</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2127,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC68207-1C38-6C4C-8D7D-AB04E9BF9554}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2196,11 +1183,21 @@
       <c r="G5" s="4">
         <v>23.9</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
+      <c r="H5" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44.2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="14"/>
@@ -2222,11 +1219,21 @@
       <c r="G6" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="14"/>
@@ -2248,11 +1255,21 @@
       <c r="G7" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="14"/>
@@ -2274,11 +1291,21 @@
       <c r="G8" s="6">
         <v>34.799999999999997</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="6"/>
+      <c r="H8" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14"/>
@@ -2600,47 +1627,43 @@
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="21" thickBot="1"/>
-    <row r="23" spans="1:12" ht="21" thickBot="1">
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="19">
-        <v>2</v>
-      </c>
-      <c r="E23" s="19">
-        <v>3</v>
-      </c>
-      <c r="F23" s="19">
-        <v>4</v>
-      </c>
-      <c r="G23" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="21" thickBot="1">
-      <c r="B24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>0.115</v>
-      </c>
-      <c r="D24">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="F24">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G24">
-        <v>0.13500000000000001</v>
-      </c>
+    <row r="23" spans="1:12">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1B10-CAC2-264D-823B-D7C6993A88B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>